--- a/Netbeans/ANA-ADDIX/output/data_storage/monoist.xlsx
+++ b/Netbeans/ANA-ADDIX/output/data_storage/monoist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA\ANA\ANA_2020\ANA-VIETNAM\Netbeans\ANA-ADDIX\output\data_storge\backup\Data_storage_empty\"/>
     </mc:Choice>
@@ -37,18 +37,199 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>url_articles</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/06/news024.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/06/news061_2.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/06/news034.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/06/news064.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/06/news043.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/06/news048.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/05/news029.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/06/news032.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/05/news015.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/05/news058.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/05/news016.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/06/news052.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/05/news033.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/06/news070.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/05/news021.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/04/news012_2.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/05/news056.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/04/news012.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/05/news055.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1912/04/news020.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1911/27/news054.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1910/31/news018.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1910/28/news036.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1910/23/news048.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1909/26/news025.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1909/17/news024.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1909/17/news028_4.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1909/12/news059.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1908/19/news021_6.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1908/16/news029.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1908/20/news006.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1907/30/news048_3.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1907/17/news026.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1907/12/news025_3.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1906/28/news039.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1906/25/news057_3.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1906/07/news023_3.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1905/15/news067.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1905/08/news064.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1904/23/news014.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1908/21/news007.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1907/04/news018.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1906/07/news024.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1904/15/news022.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1903/29/news023.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1903/14/news005.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1902/26/news048.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1902/25/news037.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1902/06/news006.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1812/14/news059.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1812/11/news052_2.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1812/05/news020.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1812/05/news020_3.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1809/14/news019.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1806/20/news015.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1805/29/news010_3.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1710/19/news044.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1709/04/news012_3.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1708/17/news054.html</t>
+  </si>
+  <si>
+    <t>https://monoist.atmarkit.co.jp/mn/articles/1707/19/news013_4.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD706"/>
@@ -434,17 +615,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -463,7 +744,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,7 +772,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,7 +800,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -547,7 +828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -575,7 +856,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -603,7 +884,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -631,7 +912,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -651,7 +932,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD22"/>
@@ -659,17 +940,117 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +1066,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +1094,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -741,7 +1122,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -769,7 +1150,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -797,7 +1178,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -825,7 +1206,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -853,7 +1234,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -873,23 +1254,123 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -907,7 +1388,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="64.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
